--- a/Operator_File.xlsx
+++ b/Operator_File.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37037865-79B1-4378-A306-8B3CA920CC0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Fakultet" sheetId="1" r:id="rId1"/>
+    <sheet name="Humaniora" sheetId="2" r:id="rId2"/>
+    <sheet name="Teknisk" sheetId="3" r:id="rId3"/>
+    <sheet name="Naturvidenskab" sheetId="4" r:id="rId4"/>
+    <sheet name="Samfund" sheetId="5" r:id="rId5"/>
+    <sheet name="Sundhed" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,12 +336,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED65095-8ED2-4908-BA1F-769FDC34B16B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A522ADE-D5E7-41E4-BBB8-05D093C24394}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB7D20B-2D03-41D9-BFDE-1811986AD3F1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CF67EE-86DA-41A2-B1BD-C4992ECD44D7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD1FA5F-DD3C-4F48-B9F9-51BEC34E5335}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Operator_File.xlsx
+++ b/Operator_File.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37037865-79B1-4378-A306-8B3CA920CC0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFF0CAF-9730-4720-931C-7BC5B4F42AF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,9 +24,200 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+  <si>
+    <t>Dansk</t>
+  </si>
+  <si>
+    <t>Humaniora</t>
+  </si>
+  <si>
+    <t>Matematik</t>
+  </si>
+  <si>
+    <t>Engelsk</t>
+  </si>
+  <si>
+    <t>Fysik</t>
+  </si>
+  <si>
+    <t>Historie</t>
+  </si>
+  <si>
+    <t>Andet sprog</t>
+  </si>
+  <si>
+    <t>Samfundsfag</t>
+  </si>
+  <si>
+    <t>Kemi</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Biologi</t>
+  </si>
+  <si>
+    <t>Teknisk</t>
+  </si>
+  <si>
+    <t>Naturvidenskab</t>
+  </si>
+  <si>
+    <t>Samfund</t>
+  </si>
+  <si>
+    <t>Sundhed</t>
+  </si>
+  <si>
+    <t>Bilogi</t>
+  </si>
+  <si>
+    <t>Anvendt filosofi</t>
+  </si>
+  <si>
+    <t>Kommunikation og digitale medier (Kommunikation)</t>
+  </si>
+  <si>
+    <t>Musik</t>
+  </si>
+  <si>
+    <t>Tysk</t>
+  </si>
+  <si>
+    <t>Informationsteknologi</t>
+  </si>
+  <si>
+    <t>Maskinteknik, diplomingeniør</t>
+  </si>
+  <si>
+    <t>Matematik-teknologi</t>
+  </si>
+  <si>
+    <t>Medialogi</t>
+  </si>
+  <si>
+    <t>Produkt- og designpsykologi</t>
+  </si>
+  <si>
+    <t>Robotteknologi</t>
+  </si>
+  <si>
+    <t>Teknoantropologi</t>
+  </si>
+  <si>
+    <t>International Virksomhedskommunikation i Engelsk</t>
+  </si>
+  <si>
+    <t>International Virksomhedskommunikation i Spansk</t>
+  </si>
+  <si>
+    <t>International Virksomhedskommunikation i Tysk</t>
+  </si>
+  <si>
+    <t>Kommunikation og digitale medier (Informationsvidenskab)</t>
+  </si>
+  <si>
+    <t>Kommunikation og digitale medier (Interaktive Digitale Medier)</t>
+  </si>
+  <si>
+    <t>Sprog og internationale studier, engelsk</t>
+  </si>
+  <si>
+    <t>Sprog og Internationale studier, Spansk</t>
+  </si>
+  <si>
+    <t>Arkitektur og Design</t>
+  </si>
+  <si>
+    <t>Bæredygtig Energiteknik, diplomingeniør</t>
+  </si>
+  <si>
+    <t>Bioteknologi</t>
+  </si>
+  <si>
+    <t>By-, energi- og miljøplanlægning</t>
+  </si>
+  <si>
+    <t>Byggeri og anlæg</t>
+  </si>
+  <si>
+    <t>Byggeri og anlæg, diplomingeniør</t>
+  </si>
+  <si>
+    <t>Datalogi</t>
+  </si>
+  <si>
+    <t>Datavidenskab</t>
+  </si>
+  <si>
+    <t>Eksportteknologi, diplomingeniør</t>
+  </si>
+  <si>
+    <t>Elektronik og it</t>
+  </si>
+  <si>
+    <t>Elektronik, diplomingeniør</t>
+  </si>
+  <si>
+    <t>Energi</t>
+  </si>
+  <si>
+    <t>Geografi</t>
+  </si>
+  <si>
+    <t>Kemi og bioteknologi, diplomingeniør</t>
+  </si>
+  <si>
+    <t>Kemiteknologi</t>
+  </si>
+  <si>
+    <t>Matematik-økonomi</t>
+  </si>
+  <si>
+    <t>Miljøvidenskab</t>
+  </si>
+  <si>
+    <t>Nanoteknologi</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Økonomi</t>
+  </si>
+  <si>
+    <t>Politik &amp; Administration</t>
+  </si>
+  <si>
+    <t>Psykologi</t>
+  </si>
+  <si>
+    <t>Socialrådgiver</t>
+  </si>
+  <si>
+    <t>Sociologi</t>
+  </si>
+  <si>
+    <t>Idræt</t>
+  </si>
+  <si>
+    <t>Medicin (lægeuddannelsen)</t>
+  </si>
+  <si>
+    <t>Medicine with Industrial Specialisation</t>
+  </si>
+  <si>
+    <t>Sundhedsteknologi</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,16 +225,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -51,14 +276,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -337,72 +609,1627 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="53.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="11" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED65095-8ED2-4908-BA1F-769FDC34B16B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="53.33203125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A13" r:id="rId1" display="https://www.aau.dk/uddannelser/bachelor/engelsk-sprog-internationale-studier" xr:uid="{E4C14FA8-C769-4E5B-A257-48446EEE7DC1}"/>
+    <hyperlink ref="A14" r:id="rId2" display="https://www.aau.dk/uddannelser/bachelor/spansk-sprog-internationale-studier" xr:uid="{E56F59F3-D79B-44C9-857A-966FBF69C6E3}"/>
+    <hyperlink ref="A15" r:id="rId3" display="https://www.aau.dk/uddannelser/bachelor/tysk" xr:uid="{97DBD872-5628-42DB-BB61-2585703C9AE1}"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://www.aau.dk/uddannelser/bachelor/anvendt-filosofi" xr:uid="{CCDEBF2B-57CE-4AE6-8A3A-3C9041B57248}"/>
+    <hyperlink ref="A3" r:id="rId5" display="https://www.aau.dk/uddannelser/bachelor/dansk" xr:uid="{E7EAC59C-3190-4673-8097-90C0DB5FB2A2}"/>
+    <hyperlink ref="A4" r:id="rId6" display="https://www.aau.dk/uddannelser/bachelor/engelsk" xr:uid="{9054BE0D-AABD-4781-BD9E-D7DC0461F1E2}"/>
+    <hyperlink ref="A5" r:id="rId7" display="https://www.aau.dk/uddannelser/bachelor/historie" xr:uid="{5B157C7D-4F23-42CD-A123-970BB86315CF}"/>
+    <hyperlink ref="A6" r:id="rId8" display="https://www.aau.dk/uddannelser/bachelor/engelsk-international-virksomhedskommunikation" xr:uid="{A9A35EAC-8374-4585-B794-2D18F3D451F3}"/>
+    <hyperlink ref="A7" r:id="rId9" display="https://www.aau.dk/uddannelser/bachelor/spansk-international-virksomhedskommunikation" xr:uid="{562C3906-DEF8-47D3-9B5D-4CD91F9F8AED}"/>
+    <hyperlink ref="A8" r:id="rId10" display="https://www.aau.dk/uddannelser/bachelor/tysk-international-virksomhedskommunikation" xr:uid="{858FE6B9-538B-4033-BBC1-F66BF3E01B36}"/>
+    <hyperlink ref="A11" r:id="rId11" display="https://www.aau.dk/uddannelser/bachelor/kdm-kommunikation" xr:uid="{4CA5CD31-9D8D-41D3-A8ED-9EA376BE72E2}"/>
+    <hyperlink ref="A10" r:id="rId12" display="https://www.aau.dk/uddannelser/bachelor/kdm-interaktivedigitalemedier" xr:uid="{D2C3A0DE-46FE-4237-A43E-72797A8EEAB6}"/>
+    <hyperlink ref="A9" r:id="rId13" display="https://www.aau.dk/uddannelser/bachelor/kdm-informationsvidenskab" xr:uid="{98EF69C1-6ABE-4FD3-AF75-37558EDBE462}"/>
+    <hyperlink ref="A12" r:id="rId14" display="https://www.aau.dk/uddannelser/bachelor/musik" xr:uid="{B9CDDE4C-345F-4689-9732-FEED609CC9ED}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A522ADE-D5E7-41E4-BBB8-05D093C24394}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="53.33203125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" display="https://www.aau.dk/uddannelser/bachelor/produkt-designpsykologi" xr:uid="{C923EBF3-5C43-4F55-85EE-7FCA63480644}"/>
+    <hyperlink ref="A7" r:id="rId2" display="https://www.aau.dk/uddannelser/bachelor/robotteknologi" xr:uid="{03AFC26B-9B5A-438C-9971-5067BD878F9F}"/>
+    <hyperlink ref="A8" r:id="rId3" display="https://www.aau.dk/uddannelser/bachelor/teknoantropologi" xr:uid="{9573135E-CF5E-43C5-9B32-9CAF92C5C84D}"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://www.aau.dk/uddannelser/bachelor/informationsteknologi" xr:uid="{908CFDCB-88C9-4230-8E2C-BF98C6632040}"/>
+    <hyperlink ref="A3" r:id="rId5" display="https://www.aau.dk/uddannelser/bachelor/maskinteknik" xr:uid="{78C1AB00-E8DD-4518-ADEC-63860137A1E7}"/>
+    <hyperlink ref="A4" r:id="rId6" display="https://www.aau.dk/uddannelser/bachelor/matematik-teknologi" xr:uid="{53DC1A3D-382F-4A4E-897F-B46B1D5D432D}"/>
+    <hyperlink ref="A5" r:id="rId7" display="https://www.aau.dk/uddannelser/bachelor/medialogi" xr:uid="{5F739BFD-A3F6-4C65-AC9C-C891F7C906B6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB7D20B-2D03-41D9-BFDE-1811986AD3F1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="53.33203125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://www.aau.dk/uddannelser/kandidat/architecture-cand-tech" xr:uid="{9F790A76-C737-4A28-8EE7-B0A73B30E1D8}"/>
+    <hyperlink ref="A23" r:id="rId2" display="https://www.aau.dk/uddannelser/bachelor/nanoteknologi-civil" xr:uid="{510615B3-79BB-486D-888E-81AAFA8C1A57}"/>
+    <hyperlink ref="A24" r:id="rId3" display="https://www.aau.dk/uddannelser/bachelor/software" xr:uid="{85A46817-0AD6-44C6-B20E-3BE01585DABD}"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://www.aau.dk/uddannelser/bachelor/arkitektur-design" xr:uid="{70C8F2F0-8F61-4AD8-BD68-E09132867B6D}"/>
+    <hyperlink ref="A4" r:id="rId5" display="https://www.aau.dk/uddannelser/bachelor/biologi" xr:uid="{F6726572-9F0A-425B-B5FD-C682B76ADBD2}"/>
+    <hyperlink ref="A5" r:id="rId6" display="https://www.aau.dk/uddannelser/bachelor/bioteknologi" xr:uid="{5765BC1E-B267-4552-8732-A969C77A7BEF}"/>
+    <hyperlink ref="A6" r:id="rId7" display="https://www.aau.dk/uddannelser/bachelor/by-energi-miljoeplanlaegning" xr:uid="{88E92811-9392-4BBA-92EA-6FD9CA43F7C7}"/>
+    <hyperlink ref="A7" r:id="rId8" display="https://www.aau.dk/uddannelser/bachelor/byggerianlaeg-civil" xr:uid="{A8026151-0A47-439B-930E-EC166B69DA83}"/>
+    <hyperlink ref="A8" r:id="rId9" display="https://www.aau.dk/uddannelser/bachelor/byggerianlaeg-diplom" xr:uid="{7BBC9EE3-ED55-4705-9626-6B49CC9471F7}"/>
+    <hyperlink ref="A3" r:id="rId10" display="https://www.aau.dk/uddannelser/bachelor/baeredygtig-energiteknik" xr:uid="{6D435780-47AC-485B-BE1F-F93C10C7690C}"/>
+    <hyperlink ref="A9" r:id="rId11" display="https://www.aau.dk/uddannelser/bachelor/datalogi" xr:uid="{F4B37C75-870C-4423-BC59-176CA8043D73}"/>
+    <hyperlink ref="A10" r:id="rId12" display="https://www.aau.dk/uddannelser/bachelor/datavidenskab" xr:uid="{873726CD-6AF2-4C09-A241-D67A5B030CBD}"/>
+    <hyperlink ref="A11" r:id="rId13" display="https://www.aau.dk/uddannelser/bachelor/eksportteknologi" xr:uid="{3B4C355D-2D62-474D-B2BB-3756D11519AC}"/>
+    <hyperlink ref="A13" r:id="rId14" display="https://www.aau.dk/uddannelser/bachelor/elektronik" xr:uid="{7B5FA3E4-C992-4A5B-8E8B-6F4DF6350DB8}"/>
+    <hyperlink ref="A12" r:id="rId15" display="https://www.aau.dk/uddannelser/bachelor/elektronik-it" xr:uid="{39C48ACC-0DD2-41B6-8136-EF2F52BA391E}"/>
+    <hyperlink ref="A14" r:id="rId16" display="https://www.aau.dk/uddannelser/bachelor/energi" xr:uid="{1B2FD9FA-1F3D-4C82-B14C-3763C23A1A5C}"/>
+    <hyperlink ref="A15" r:id="rId17" display="https://www.aau.dk/uddannelser/bachelor/fysik" xr:uid="{5AE8417B-3809-41ED-9892-7D90306EFB1C}"/>
+    <hyperlink ref="A16" r:id="rId18" display="https://www.aau.dk/uddannelser/bachelor/geografi" xr:uid="{4CD56C1A-4DDB-4F1A-ACA4-14A6D6FE3DB7}"/>
+    <hyperlink ref="A17" r:id="rId19" display="https://www.aau.dk/uddannelser/bachelor/kemi" xr:uid="{2F1BF5F0-A94F-4F81-BBE8-897BFE366389}"/>
+    <hyperlink ref="A18" r:id="rId20" display="https://www.aau.dk/uddannelser/bachelor/kemi-bioteknologi" xr:uid="{5EF3C652-E515-4AFD-B1D9-1BB3463E0159}"/>
+    <hyperlink ref="A19" r:id="rId21" display="https://www.aau.dk/uddannelser/bachelor/kemiteknologi" xr:uid="{AF07E851-9CCB-4C77-BFA6-0C4414AA9F4C}"/>
+    <hyperlink ref="A20" r:id="rId22" display="https://www.aau.dk/uddannelser/bachelor/matematik" xr:uid="{11F8CAAD-BD92-4750-A537-AA00A3DB020D}"/>
+    <hyperlink ref="A21" r:id="rId23" display="https://www.aau.dk/uddannelser/bachelor/matematik-oekonomi" xr:uid="{459DB634-3E0A-4E09-826B-55588CA60BB2}"/>
+    <hyperlink ref="A22" r:id="rId24" display="https://www.aau.dk/uddannelser/bachelor/miljoevidenskab" xr:uid="{E471305D-3328-4A7C-ACC2-233788D45B1A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CF67EE-86DA-41A2-B1BD-C4992ECD44D7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="53.33203125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://www.aau.dk/uddannelser/bachelor/politik-administration" xr:uid="{703381B9-67A7-4C9C-934E-BF38EDA96B6F}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.aau.dk/uddannelser/bachelor/psykologi" xr:uid="{E74CF294-8467-4538-B74B-32472F8AFB81}"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://www.aau.dk/uddannelser/bachelor/samfundsfag" xr:uid="{575B59C3-BD20-4054-8081-E81CFC8103F2}"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://www.aau.dk/uddannelser/bachelor/socialraadgiver" xr:uid="{0147570D-54D9-4B2D-809D-DE292386DE08}"/>
+    <hyperlink ref="A7" r:id="rId5" display="https://www.aau.dk/uddannelser/bachelor/sociologi" xr:uid="{013FC9F1-3076-4335-B4E5-50CF4AB181D6}"/>
+    <hyperlink ref="A2" r:id="rId6" display="https://www.aau.dk/uddannelser/bachelor/oekonomi" xr:uid="{5965A161-2EFC-4DA8-92CD-005A2E6BC622}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD1FA5F-DD3C-4F48-B9F9-51BEC34E5335}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="53.33203125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" display="https://www.aau.dk/uddannelser/bachelor/sundhedsteknologi" xr:uid="{2BD509A3-18AC-4B23-8993-98FFC3FB8F7C}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://www.aau.dk/uddannelser/bachelor/idraet" xr:uid="{1D107A4D-4F69-42D2-95FC-1AFC7CDFD87C}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://www.aau.dk/uddannelser/bachelor/medicin" xr:uid="{F7263E82-0FB4-414B-B7DC-BE50D195D7ED}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://www.aau.dk/uddannelser/kandidat/medicine-industrial-specialisation" xr:uid="{E6759FCD-3D29-453C-979D-F0C6EB3CCB4C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Operator_File.xlsx
+++ b/Operator_File.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFF0CAF-9730-4720-931C-7BC5B4F42AF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D40E83B-69B0-4985-8B34-06413C5AC5B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fakultet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Dansk</t>
   </si>
@@ -78,15 +78,6 @@
     <t>Anvendt filosofi</t>
   </si>
   <si>
-    <t>Kommunikation og digitale medier (Kommunikation)</t>
-  </si>
-  <si>
-    <t>Musik</t>
-  </si>
-  <si>
-    <t>Tysk</t>
-  </si>
-  <si>
     <t>Informationsteknologi</t>
   </si>
   <si>
@@ -108,30 +99,6 @@
     <t>Teknoantropologi</t>
   </si>
   <si>
-    <t>International Virksomhedskommunikation i Engelsk</t>
-  </si>
-  <si>
-    <t>International Virksomhedskommunikation i Spansk</t>
-  </si>
-  <si>
-    <t>International Virksomhedskommunikation i Tysk</t>
-  </si>
-  <si>
-    <t>Kommunikation og digitale medier (Informationsvidenskab)</t>
-  </si>
-  <si>
-    <t>Kommunikation og digitale medier (Interaktive Digitale Medier)</t>
-  </si>
-  <si>
-    <t>Sprog og internationale studier, engelsk</t>
-  </si>
-  <si>
-    <t>Sprog og Internationale studier, Spansk</t>
-  </si>
-  <si>
-    <t>Arkitektur og Design</t>
-  </si>
-  <si>
     <t>Bæredygtig Energiteknik, diplomingeniør</t>
   </si>
   <si>
@@ -144,48 +111,15 @@
     <t>Byggeri og anlæg</t>
   </si>
   <si>
-    <t>Byggeri og anlæg, diplomingeniør</t>
-  </si>
-  <si>
-    <t>Datalogi</t>
-  </si>
-  <si>
-    <t>Datavidenskab</t>
-  </si>
-  <si>
-    <t>Eksportteknologi, diplomingeniør</t>
-  </si>
-  <si>
-    <t>Elektronik og it</t>
-  </si>
-  <si>
     <t>Elektronik, diplomingeniør</t>
   </si>
   <si>
-    <t>Energi</t>
-  </si>
-  <si>
-    <t>Geografi</t>
-  </si>
-  <si>
-    <t>Kemi og bioteknologi, diplomingeniør</t>
-  </si>
-  <si>
-    <t>Kemiteknologi</t>
-  </si>
-  <si>
     <t>Matematik-økonomi</t>
   </si>
   <si>
-    <t>Miljøvidenskab</t>
-  </si>
-  <si>
     <t>Nanoteknologi</t>
   </si>
   <si>
-    <t>Software</t>
-  </si>
-  <si>
     <t>Økonomi</t>
   </si>
   <si>
@@ -211,6 +145,21 @@
   </si>
   <si>
     <t>Sundhedsteknologi</t>
+  </si>
+  <si>
+    <t>International Virksomhedskommunikation i Engelsk, spansk, tysk</t>
+  </si>
+  <si>
+    <t>Kommunikation og digitale medier (Informationsvidenskab, interaktive digitale medier, kommunikation</t>
+  </si>
+  <si>
+    <t>Sprog og internationale studier, engelsk, spansk</t>
+  </si>
+  <si>
+    <t>Datalogi/Software/Datavidenskab</t>
+  </si>
+  <si>
+    <t>Jura</t>
   </si>
 </sst>
 </file>
@@ -309,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -328,6 +277,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -611,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED65095-8ED2-4908-BA1F-769FDC34B16B}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -825,7 +775,7 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3"/>
@@ -847,7 +797,7 @@
       <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3"/>
@@ -869,7 +819,7 @@
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
@@ -891,7 +841,7 @@
       <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3"/>
@@ -913,8 +863,8 @@
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>27</v>
+      <c r="A6" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -935,8 +885,8 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>28</v>
+      <c r="A7" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -957,8 +907,8 @@
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>29</v>
+      <c r="A8" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -980,174 +930,156 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" display="https://www.aau.dk/uddannelser/bachelor/engelsk-sprog-internationale-studier" xr:uid="{E4C14FA8-C769-4E5B-A257-48446EEE7DC1}"/>
-    <hyperlink ref="A14" r:id="rId2" display="https://www.aau.dk/uddannelser/bachelor/spansk-sprog-internationale-studier" xr:uid="{E56F59F3-D79B-44C9-857A-966FBF69C6E3}"/>
-    <hyperlink ref="A15" r:id="rId3" display="https://www.aau.dk/uddannelser/bachelor/tysk" xr:uid="{97DBD872-5628-42DB-BB61-2585703C9AE1}"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://www.aau.dk/uddannelser/bachelor/anvendt-filosofi" xr:uid="{CCDEBF2B-57CE-4AE6-8A3A-3C9041B57248}"/>
-    <hyperlink ref="A3" r:id="rId5" display="https://www.aau.dk/uddannelser/bachelor/dansk" xr:uid="{E7EAC59C-3190-4673-8097-90C0DB5FB2A2}"/>
-    <hyperlink ref="A4" r:id="rId6" display="https://www.aau.dk/uddannelser/bachelor/engelsk" xr:uid="{9054BE0D-AABD-4781-BD9E-D7DC0461F1E2}"/>
-    <hyperlink ref="A5" r:id="rId7" display="https://www.aau.dk/uddannelser/bachelor/historie" xr:uid="{5B157C7D-4F23-42CD-A123-970BB86315CF}"/>
-    <hyperlink ref="A6" r:id="rId8" display="https://www.aau.dk/uddannelser/bachelor/engelsk-international-virksomhedskommunikation" xr:uid="{A9A35EAC-8374-4585-B794-2D18F3D451F3}"/>
-    <hyperlink ref="A7" r:id="rId9" display="https://www.aau.dk/uddannelser/bachelor/spansk-international-virksomhedskommunikation" xr:uid="{562C3906-DEF8-47D3-9B5D-4CD91F9F8AED}"/>
-    <hyperlink ref="A8" r:id="rId10" display="https://www.aau.dk/uddannelser/bachelor/tysk-international-virksomhedskommunikation" xr:uid="{858FE6B9-538B-4033-BBC1-F66BF3E01B36}"/>
-    <hyperlink ref="A11" r:id="rId11" display="https://www.aau.dk/uddannelser/bachelor/kdm-kommunikation" xr:uid="{4CA5CD31-9D8D-41D3-A8ED-9EA376BE72E2}"/>
-    <hyperlink ref="A10" r:id="rId12" display="https://www.aau.dk/uddannelser/bachelor/kdm-interaktivedigitalemedier" xr:uid="{D2C3A0DE-46FE-4237-A43E-72797A8EEAB6}"/>
-    <hyperlink ref="A9" r:id="rId13" display="https://www.aau.dk/uddannelser/bachelor/kdm-informationsvidenskab" xr:uid="{98EF69C1-6ABE-4FD3-AF75-37558EDBE462}"/>
-    <hyperlink ref="A12" r:id="rId14" display="https://www.aau.dk/uddannelser/bachelor/musik" xr:uid="{B9CDDE4C-345F-4689-9732-FEED609CC9ED}"/>
+    <hyperlink ref="A8" r:id="rId1" display="https://www.aau.dk/uddannelser/bachelor/engelsk-sprog-internationale-studier" xr:uid="{E4C14FA8-C769-4E5B-A257-48446EEE7DC1}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://www.aau.dk/uddannelser/bachelor/anvendt-filosofi" xr:uid="{CCDEBF2B-57CE-4AE6-8A3A-3C9041B57248}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://www.aau.dk/uddannelser/bachelor/dansk" xr:uid="{E7EAC59C-3190-4673-8097-90C0DB5FB2A2}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://www.aau.dk/uddannelser/bachelor/engelsk" xr:uid="{9054BE0D-AABD-4781-BD9E-D7DC0461F1E2}"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://www.aau.dk/uddannelser/bachelor/historie" xr:uid="{5B157C7D-4F23-42CD-A123-970BB86315CF}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://www.aau.dk/uddannelser/bachelor/engelsk-international-virksomhedskommunikation" xr:uid="{A9A35EAC-8374-4585-B794-2D18F3D451F3}"/>
+    <hyperlink ref="A7" r:id="rId7" display="https://www.aau.dk/uddannelser/bachelor/kdm-informationsvidenskab" xr:uid="{98EF69C1-6ABE-4FD3-AF75-37558EDBE462}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://www.aau.dk/uddannelser/bachelor/psykologi" xr:uid="{E591C9D0-FA86-4BE0-B345-569D7023DEEC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1158,7 +1090,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1188,7 +1120,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1210,7 +1142,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1232,7 +1164,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1254,7 +1186,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1276,7 +1208,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1298,7 +1230,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1320,7 +1252,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1359,7 +1291,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1388,7 +1320,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1410,7 +1342,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1432,7 +1364,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1454,7 +1386,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1476,7 +1408,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1498,7 +1430,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1520,7 +1452,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1542,7 +1474,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1564,7 +1496,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1586,7 +1518,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1608,7 +1540,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1629,8 +1561,8 @@
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>44</v>
+      <c r="A13" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1651,246 +1583,241 @@
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
@@ -1898,29 +1825,18 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://www.aau.dk/uddannelser/kandidat/architecture-cand-tech" xr:uid="{9F790A76-C737-4A28-8EE7-B0A73B30E1D8}"/>
-    <hyperlink ref="A23" r:id="rId2" display="https://www.aau.dk/uddannelser/bachelor/nanoteknologi-civil" xr:uid="{510615B3-79BB-486D-888E-81AAFA8C1A57}"/>
-    <hyperlink ref="A24" r:id="rId3" display="https://www.aau.dk/uddannelser/bachelor/software" xr:uid="{85A46817-0AD6-44C6-B20E-3BE01585DABD}"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://www.aau.dk/uddannelser/bachelor/arkitektur-design" xr:uid="{70C8F2F0-8F61-4AD8-BD68-E09132867B6D}"/>
-    <hyperlink ref="A4" r:id="rId5" display="https://www.aau.dk/uddannelser/bachelor/biologi" xr:uid="{F6726572-9F0A-425B-B5FD-C682B76ADBD2}"/>
-    <hyperlink ref="A5" r:id="rId6" display="https://www.aau.dk/uddannelser/bachelor/bioteknologi" xr:uid="{5765BC1E-B267-4552-8732-A969C77A7BEF}"/>
-    <hyperlink ref="A6" r:id="rId7" display="https://www.aau.dk/uddannelser/bachelor/by-energi-miljoeplanlaegning" xr:uid="{88E92811-9392-4BBA-92EA-6FD9CA43F7C7}"/>
-    <hyperlink ref="A7" r:id="rId8" display="https://www.aau.dk/uddannelser/bachelor/byggerianlaeg-civil" xr:uid="{A8026151-0A47-439B-930E-EC166B69DA83}"/>
-    <hyperlink ref="A8" r:id="rId9" display="https://www.aau.dk/uddannelser/bachelor/byggerianlaeg-diplom" xr:uid="{7BBC9EE3-ED55-4705-9626-6B49CC9471F7}"/>
-    <hyperlink ref="A3" r:id="rId10" display="https://www.aau.dk/uddannelser/bachelor/baeredygtig-energiteknik" xr:uid="{6D435780-47AC-485B-BE1F-F93C10C7690C}"/>
-    <hyperlink ref="A9" r:id="rId11" display="https://www.aau.dk/uddannelser/bachelor/datalogi" xr:uid="{F4B37C75-870C-4423-BC59-176CA8043D73}"/>
-    <hyperlink ref="A10" r:id="rId12" display="https://www.aau.dk/uddannelser/bachelor/datavidenskab" xr:uid="{873726CD-6AF2-4C09-A241-D67A5B030CBD}"/>
-    <hyperlink ref="A11" r:id="rId13" display="https://www.aau.dk/uddannelser/bachelor/eksportteknologi" xr:uid="{3B4C355D-2D62-474D-B2BB-3756D11519AC}"/>
-    <hyperlink ref="A13" r:id="rId14" display="https://www.aau.dk/uddannelser/bachelor/elektronik" xr:uid="{7B5FA3E4-C992-4A5B-8E8B-6F4DF6350DB8}"/>
-    <hyperlink ref="A12" r:id="rId15" display="https://www.aau.dk/uddannelser/bachelor/elektronik-it" xr:uid="{39C48ACC-0DD2-41B6-8136-EF2F52BA391E}"/>
-    <hyperlink ref="A14" r:id="rId16" display="https://www.aau.dk/uddannelser/bachelor/energi" xr:uid="{1B2FD9FA-1F3D-4C82-B14C-3763C23A1A5C}"/>
-    <hyperlink ref="A15" r:id="rId17" display="https://www.aau.dk/uddannelser/bachelor/fysik" xr:uid="{5AE8417B-3809-41ED-9892-7D90306EFB1C}"/>
-    <hyperlink ref="A16" r:id="rId18" display="https://www.aau.dk/uddannelser/bachelor/geografi" xr:uid="{4CD56C1A-4DDB-4F1A-ACA4-14A6D6FE3DB7}"/>
-    <hyperlink ref="A17" r:id="rId19" display="https://www.aau.dk/uddannelser/bachelor/kemi" xr:uid="{2F1BF5F0-A94F-4F81-BBE8-897BFE366389}"/>
-    <hyperlink ref="A18" r:id="rId20" display="https://www.aau.dk/uddannelser/bachelor/kemi-bioteknologi" xr:uid="{5EF3C652-E515-4AFD-B1D9-1BB3463E0159}"/>
-    <hyperlink ref="A19" r:id="rId21" display="https://www.aau.dk/uddannelser/bachelor/kemiteknologi" xr:uid="{AF07E851-9CCB-4C77-BFA6-0C4414AA9F4C}"/>
-    <hyperlink ref="A20" r:id="rId22" display="https://www.aau.dk/uddannelser/bachelor/matematik" xr:uid="{11F8CAAD-BD92-4750-A537-AA00A3DB020D}"/>
-    <hyperlink ref="A21" r:id="rId23" display="https://www.aau.dk/uddannelser/bachelor/matematik-oekonomi" xr:uid="{459DB634-3E0A-4E09-826B-55588CA60BB2}"/>
-    <hyperlink ref="A22" r:id="rId24" display="https://www.aau.dk/uddannelser/bachelor/miljoevidenskab" xr:uid="{E471305D-3328-4A7C-ACC2-233788D45B1A}"/>
+    <hyperlink ref="A13" r:id="rId2" display="https://www.aau.dk/uddannelser/bachelor/nanoteknologi-civil" xr:uid="{510615B3-79BB-486D-888E-81AAFA8C1A57}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://www.aau.dk/uddannelser/bachelor/biologi" xr:uid="{F6726572-9F0A-425B-B5FD-C682B76ADBD2}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://www.aau.dk/uddannelser/bachelor/bioteknologi" xr:uid="{5765BC1E-B267-4552-8732-A969C77A7BEF}"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://www.aau.dk/uddannelser/bachelor/by-energi-miljoeplanlaegning" xr:uid="{88E92811-9392-4BBA-92EA-6FD9CA43F7C7}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://www.aau.dk/uddannelser/bachelor/byggerianlaeg-civil" xr:uid="{A8026151-0A47-439B-930E-EC166B69DA83}"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.aau.dk/uddannelser/bachelor/baeredygtig-energiteknik" xr:uid="{6D435780-47AC-485B-BE1F-F93C10C7690C}"/>
+    <hyperlink ref="A7" r:id="rId8" display="https://www.aau.dk/uddannelser/bachelor/datalogi" xr:uid="{F4B37C75-870C-4423-BC59-176CA8043D73}"/>
+    <hyperlink ref="A9" r:id="rId9" display="https://www.aau.dk/uddannelser/bachelor/fysik" xr:uid="{5AE8417B-3809-41ED-9892-7D90306EFB1C}"/>
+    <hyperlink ref="A10" r:id="rId10" display="https://www.aau.dk/uddannelser/bachelor/kemi" xr:uid="{2F1BF5F0-A94F-4F81-BBE8-897BFE366389}"/>
+    <hyperlink ref="A11" r:id="rId11" display="https://www.aau.dk/uddannelser/bachelor/matematik" xr:uid="{11F8CAAD-BD92-4750-A537-AA00A3DB020D}"/>
+    <hyperlink ref="A12" r:id="rId12" display="https://www.aau.dk/uddannelser/bachelor/matematik-oekonomi" xr:uid="{459DB634-3E0A-4E09-826B-55588CA60BB2}"/>
+    <hyperlink ref="A8" r:id="rId13" display="https://www.aau.dk/uddannelser/bachelor/elektronik" xr:uid="{7B5FA3E4-C992-4A5B-8E8B-6F4DF6350DB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1931,7 +1847,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1960,7 +1876,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1982,7 +1898,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2004,7 +1920,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2026,7 +1942,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2048,7 +1964,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2069,8 +1985,8 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>57</v>
+      <c r="A7" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2093,11 +2009,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://www.aau.dk/uddannelser/bachelor/politik-administration" xr:uid="{703381B9-67A7-4C9C-934E-BF38EDA96B6F}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.aau.dk/uddannelser/bachelor/psykologi" xr:uid="{E74CF294-8467-4538-B74B-32472F8AFB81}"/>
-    <hyperlink ref="A5" r:id="rId3" display="https://www.aau.dk/uddannelser/bachelor/samfundsfag" xr:uid="{575B59C3-BD20-4054-8081-E81CFC8103F2}"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://www.aau.dk/uddannelser/bachelor/socialraadgiver" xr:uid="{0147570D-54D9-4B2D-809D-DE292386DE08}"/>
-    <hyperlink ref="A7" r:id="rId5" display="https://www.aau.dk/uddannelser/bachelor/sociologi" xr:uid="{013FC9F1-3076-4335-B4E5-50CF4AB181D6}"/>
-    <hyperlink ref="A2" r:id="rId6" display="https://www.aau.dk/uddannelser/bachelor/oekonomi" xr:uid="{5965A161-2EFC-4DA8-92CD-005A2E6BC622}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.aau.dk/uddannelser/bachelor/samfundsfag" xr:uid="{575B59C3-BD20-4054-8081-E81CFC8103F2}"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://www.aau.dk/uddannelser/bachelor/socialraadgiver" xr:uid="{0147570D-54D9-4B2D-809D-DE292386DE08}"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://www.aau.dk/uddannelser/bachelor/sociologi" xr:uid="{013FC9F1-3076-4335-B4E5-50CF4AB181D6}"/>
+    <hyperlink ref="A2" r:id="rId5" display="https://www.aau.dk/uddannelser/bachelor/oekonomi" xr:uid="{5965A161-2EFC-4DA8-92CD-005A2E6BC622}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://www.aau.dk/uddannelser/bachelor/jura" xr:uid="{803584A3-BB59-4039-ABE9-6E043924492A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2108,7 +2024,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2137,7 +2053,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2159,7 +2075,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2181,7 +2097,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2203,7 +2119,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>

--- a/Operator_File.xlsx
+++ b/Operator_File.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624D229C-206C-4F0B-87BA-45BF529E5C10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F44797-08C2-4557-B3AF-5EED3E4C7452}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fakultet" sheetId="1" r:id="rId1"/>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -949,9 +949,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED65095-8ED2-4908-BA1F-769FDC34B16B}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:BZ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
